--- a/20170502-mnpollv3-healthcare/builds/development/data/_raw/mnpoll.xlsx
+++ b/20170502-mnpollv3-healthcare/builds/development/data/_raw/mnpoll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="72">
   <si>
     <t>year</t>
   </si>
@@ -233,6 +233,9 @@
   <si>
     <t>Other/Didn't vote</t>
   </si>
+  <si>
+    <t>Other/Did not vote</t>
+  </si>
 </sst>
 </file>
 
@@ -294,7 +297,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="188">
+  <cellStyleXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -415,6 +418,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -493,7 +498,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="188">
+  <cellStyles count="190">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -587,6 +592,7 @@
     <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -680,6 +686,7 @@
     <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="119" builtinId="5"/>
   </cellStyles>
@@ -1012,9 +1019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomLeft" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -6043,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L59" s="1">
         <v>0</v>
@@ -6129,7 +6136,7 @@
         <v>0.25</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L60" s="4">
         <v>0.16</v>
@@ -6215,7 +6222,7 @@
         <v>0.18</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L61" s="4">
         <v>0.19</v>
@@ -6301,7 +6308,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L62" s="4">
         <v>0.12</v>
@@ -6387,7 +6394,7 @@
         <v>0.23</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L63" s="4">
         <v>0.17</v>
@@ -6473,7 +6480,7 @@
         <v>0.34</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L64" s="4">
         <v>0.16</v>
@@ -6559,7 +6566,7 @@
         <v>0.27</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L65" s="4">
         <v>0.15</v>
@@ -6645,7 +6652,7 @@
         <v>0.23</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L66" s="4">
         <v>0.17</v>
@@ -6731,7 +6738,7 @@
         <v>0.23</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L67" s="4">
         <v>0.2</v>
@@ -6817,7 +6824,7 @@
         <v>0.27</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L68" s="4">
         <v>0.12</v>
@@ -6903,7 +6910,7 @@
         <v>0.24</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L69" s="4">
         <v>0.17</v>
@@ -6989,7 +6996,7 @@
         <v>0.25</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L70" s="4">
         <v>0.17</v>
@@ -7075,7 +7082,7 @@
         <v>0.34</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L71" s="4">
         <v>0.17</v>
@@ -7161,7 +7168,7 @@
         <v>0.2</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L72" s="4">
         <v>0.15</v>
@@ -7247,7 +7254,7 @@
         <v>0.05</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L73" s="4">
         <v>0.1</v>
@@ -7333,7 +7340,7 @@
         <v>0.47</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L74" s="4">
         <v>0.16</v>
@@ -7419,7 +7426,7 @@
         <v>0.25</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L75" s="4">
         <v>0.21</v>
@@ -7505,7 +7512,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L76" s="4">
         <v>0.12</v>
@@ -7591,7 +7598,7 @@
         <v>0.03</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L77" s="4">
         <v>0.2</v>
@@ -7656,7 +7663,7 @@
         <v>56</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>67</v>
@@ -7677,7 +7684,7 @@
         <v>0.18</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L78" s="4">
         <v>0.16</v>
